--- a/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E857E54B-17B8-4EB8-8038-D48311DF5121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E5CA0-1BDD-4BEB-8E5C-7BEC2FD74F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -309,6 +311,21 @@
   </si>
   <si>
     <t>Báo cáo công nợ tháng 8/2020</t>
+  </si>
+  <si>
+    <t>Zin kid</t>
+  </si>
+  <si>
+    <t>Augmentin 500</t>
+  </si>
+  <si>
+    <t>Ventolin 5mg</t>
+  </si>
+  <si>
+    <t>Daleston 30</t>
+  </si>
+  <si>
+    <t>Daleston 75</t>
   </si>
 </sst>
 </file>
@@ -458,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -598,11 +615,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -900,13 +928,17 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -943,6 +975,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,14 +1030,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,7 +1379,7 @@
   </sheetPr>
   <dimension ref="A2:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
@@ -1393,111 +1428,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="126" t="s">
+      <c r="A4" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="138" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="125" t="s">
+      <c r="F4" s="141"/>
+      <c r="G4" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125" t="s">
+      <c r="H4" s="129"/>
+      <c r="I4" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125" t="s">
+      <c r="J4" s="129"/>
+      <c r="K4" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125" t="s">
+      <c r="L4" s="129"/>
+      <c r="M4" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="125"/>
-      <c r="O4" s="132" t="s">
+      <c r="N4" s="129"/>
+      <c r="O4" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="125" t="s">
+      <c r="P4" s="134"/>
+      <c r="Q4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125" t="s">
+      <c r="R4" s="129"/>
+      <c r="S4" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125" t="s">
+      <c r="T4" s="129"/>
+      <c r="U4" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125" t="s">
+      <c r="V4" s="129"/>
+      <c r="W4" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="133" t="s">
+      <c r="X4" s="129"/>
+      <c r="Y4" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="136" t="s">
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="137"/>
-      <c r="AC4" s="134" t="s">
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="131" t="s">
+      <c r="AD4" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="125" t="s">
+      <c r="AE4" s="129" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="126"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1576,9 +1611,9 @@
       <c r="AB5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="125"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="129"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1698,7 +1733,7 @@
         <v>1500000</v>
       </c>
       <c r="AD6" s="17">
-        <f>SUM(D6,H6,AC6,F6)</f>
+        <f t="shared" ref="AD6:AD36" si="0">SUM(D6,H6,AC6,F6)</f>
         <v>3500000</v>
       </c>
       <c r="AE6" s="64"/>
@@ -1714,99 +1749,99 @@
         <v>5</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" ref="D7:D36" si="0">PRODUCT(C7,200000)</f>
+        <f t="shared" ref="D7:D36" si="1">PRODUCT(C7,200000)</f>
         <v>1000000</v>
       </c>
       <c r="E7" s="17">
         <v>0</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7:F36" si="1">PRODUCT(E7,100000)</f>
+        <f t="shared" ref="F7:F36" si="2">PRODUCT(E7,100000)</f>
         <v>0</v>
       </c>
       <c r="G7" s="122">
         <v>4</v>
       </c>
       <c r="H7" s="40">
-        <f t="shared" ref="H7:H36" si="2">PRODUCT(G7,300000)</f>
+        <f t="shared" ref="H7:H36" si="3">PRODUCT(G7,300000)</f>
         <v>1200000</v>
       </c>
       <c r="I7" s="40">
         <v>0</v>
       </c>
       <c r="J7" s="40">
-        <f t="shared" ref="J7:J36" si="3">PRODUCT(I8,150000)</f>
+        <f t="shared" ref="J7:J36" si="4">PRODUCT(I8,150000)</f>
         <v>0</v>
       </c>
       <c r="K7" s="122">
         <v>0</v>
       </c>
       <c r="L7" s="40">
-        <f t="shared" ref="L7:L36" si="4">PRODUCT(K7,300000)</f>
+        <f t="shared" ref="L7:L36" si="5">PRODUCT(K7,300000)</f>
         <v>0</v>
       </c>
       <c r="M7" s="40">
         <v>0</v>
       </c>
       <c r="N7" s="40">
-        <f t="shared" ref="N7:N36" si="5">PRODUCT(M8,150000)</f>
+        <f t="shared" ref="N7:N36" si="6">PRODUCT(M8,150000)</f>
         <v>0</v>
       </c>
       <c r="O7" s="123">
         <v>0</v>
       </c>
       <c r="P7" s="41">
-        <f t="shared" ref="P7:P36" si="6">PRODUCT(O7,30000)</f>
+        <f t="shared" ref="P7:P36" si="7">PRODUCT(O7,30000)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="14">
         <v>3</v>
       </c>
       <c r="R7" s="16">
-        <f t="shared" ref="R7:R36" si="7">PRODUCT(Q7,300000)</f>
+        <f t="shared" ref="R7:R36" si="8">PRODUCT(Q7,300000)</f>
         <v>900000</v>
       </c>
       <c r="S7" s="14">
         <v>1</v>
       </c>
       <c r="T7" s="19">
-        <f t="shared" ref="T7:T36" si="8">PRODUCT(S7,600000)</f>
+        <f t="shared" ref="T7:T36" si="9">PRODUCT(S7,600000)</f>
         <v>600000</v>
       </c>
       <c r="U7" s="14">
         <v>0</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" ref="V7:V36" si="9">PRODUCT(U7,30000)</f>
+        <f t="shared" ref="V7:V36" si="10">PRODUCT(U7,30000)</f>
         <v>0</v>
       </c>
       <c r="W7" s="13">
         <v>0</v>
       </c>
       <c r="X7" s="12">
-        <f t="shared" ref="X7:X36" si="10">PRODUCT(W7,50000)</f>
+        <f t="shared" ref="X7:X36" si="11">PRODUCT(W7,50000)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="124">
         <v>0</v>
       </c>
       <c r="Z7" s="103">
-        <f t="shared" ref="Z7:Z36" si="11">PRODUCT(Y7,700000)</f>
+        <f t="shared" ref="Z7:Z36" si="12">PRODUCT(Y7,700000)</f>
         <v>0</v>
       </c>
       <c r="AA7" s="103">
         <v>0</v>
       </c>
       <c r="AB7" s="18">
-        <f t="shared" ref="AB7:AB36" si="12">PRODUCT(AA7,1300000)</f>
+        <f t="shared" ref="AB7:AB36" si="13">PRODUCT(AA7,1300000)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="18">
-        <f t="shared" ref="AC7:AC36" si="13">SUM(P7,R7,T7,V7,X7,Z7,AB7)</f>
+        <f t="shared" ref="AC7:AC36" si="14">SUM(P7,R7,T7,V7,X7,Z7,AB7)</f>
         <v>1500000</v>
       </c>
       <c r="AD7" s="17">
-        <f>SUM(D7,H7,AC7,F7)</f>
+        <f t="shared" si="0"/>
         <v>3700000</v>
       </c>
       <c r="AE7" s="77"/>
@@ -1822,99 +1857,99 @@
         <v>7</v>
       </c>
       <c r="D8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1400000</v>
       </c>
       <c r="E8" s="17">
         <v>0</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="122">
         <v>2</v>
       </c>
       <c r="H8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
       <c r="I8" s="40">
         <v>0</v>
       </c>
       <c r="J8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="122">
         <v>0</v>
       </c>
       <c r="L8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M8" s="40">
         <v>0</v>
       </c>
       <c r="N8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O8" s="123">
         <v>0</v>
       </c>
       <c r="P8" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8" s="14">
         <v>0</v>
       </c>
       <c r="R8" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S8" s="14">
         <v>1</v>
       </c>
       <c r="T8" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>600000</v>
       </c>
       <c r="U8" s="14">
         <v>0</v>
       </c>
       <c r="V8" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W8" s="13">
         <v>0</v>
       </c>
       <c r="X8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y8" s="124">
         <v>0</v>
       </c>
       <c r="Z8" s="103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA8" s="103">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC8" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>600000</v>
       </c>
       <c r="AD8" s="17">
-        <f>SUM(D8,H8,AC8,F8)</f>
+        <f t="shared" si="0"/>
         <v>2600000</v>
       </c>
       <c r="AE8" s="77"/>
@@ -1943,99 +1978,99 @@
         <v>0</v>
       </c>
       <c r="D9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="122">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="40">
+        <v>0</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="122">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="40">
+        <v>0</v>
+      </c>
+      <c r="N9" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="123">
+        <v>0</v>
+      </c>
+      <c r="P9" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="122">
-        <v>0</v>
-      </c>
-      <c r="H9" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="40">
-        <v>0</v>
-      </c>
-      <c r="J9" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="122">
-        <v>0</v>
-      </c>
-      <c r="L9" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="40">
-        <v>0</v>
-      </c>
-      <c r="N9" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="123">
-        <v>0</v>
-      </c>
-      <c r="P9" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="14">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="13">
-        <v>0</v>
-      </c>
-      <c r="X9" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="17">
-        <f>SUM(D9,H9,AC9,F9)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="77"/>
@@ -2051,99 +2086,99 @@
         <v>0</v>
       </c>
       <c r="D10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="122">
+        <v>0</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="40">
+        <v>0</v>
+      </c>
+      <c r="J10" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="122">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="40">
+        <v>0</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="123">
+        <v>0</v>
+      </c>
+      <c r="P10" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="122">
-        <v>0</v>
-      </c>
-      <c r="H10" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="40">
-        <v>0</v>
-      </c>
-      <c r="J10" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="122">
-        <v>0</v>
-      </c>
-      <c r="L10" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="40">
-        <v>0</v>
-      </c>
-      <c r="N10" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="123">
-        <v>0</v>
-      </c>
-      <c r="P10" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
-      <c r="T10" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0</v>
-      </c>
-      <c r="X10" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="17">
-        <f>SUM(D10,H10,AC10,F10)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="77"/>
@@ -2159,99 +2194,99 @@
         <v>0</v>
       </c>
       <c r="D11" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="122">
+        <v>0</v>
+      </c>
+      <c r="H11" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="40">
+        <v>0</v>
+      </c>
+      <c r="J11" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="122">
+        <v>0</v>
+      </c>
+      <c r="L11" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="40">
+        <v>0</v>
+      </c>
+      <c r="N11" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="123">
+        <v>0</v>
+      </c>
+      <c r="P11" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="13">
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="122">
-        <v>0</v>
-      </c>
-      <c r="H11" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="40">
-        <v>0</v>
-      </c>
-      <c r="J11" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="122">
-        <v>0</v>
-      </c>
-      <c r="L11" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="40">
-        <v>0</v>
-      </c>
-      <c r="N11" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="123">
-        <v>0</v>
-      </c>
-      <c r="P11" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0</v>
-      </c>
-      <c r="R11" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="14">
-        <v>0</v>
-      </c>
-      <c r="T11" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="14">
-        <v>0</v>
-      </c>
-      <c r="V11" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="13">
-        <v>0</v>
-      </c>
-      <c r="X11" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="17">
-        <f>SUM(D11,H11,AC11,F11)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="77"/>
@@ -2267,99 +2302,99 @@
         <v>0</v>
       </c>
       <c r="D12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="122">
+        <v>0</v>
+      </c>
+      <c r="H12" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="40">
+        <v>0</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="122">
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="40">
+        <v>0</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="123">
+        <v>0</v>
+      </c>
+      <c r="P12" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="122">
-        <v>0</v>
-      </c>
-      <c r="H12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="40">
-        <v>0</v>
-      </c>
-      <c r="J12" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="122">
-        <v>0</v>
-      </c>
-      <c r="L12" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="40">
-        <v>0</v>
-      </c>
-      <c r="N12" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="123">
-        <v>0</v>
-      </c>
-      <c r="P12" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0</v>
-      </c>
-      <c r="R12" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="14">
-        <v>0</v>
-      </c>
-      <c r="T12" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
-      <c r="V12" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="13">
-        <v>0</v>
-      </c>
-      <c r="X12" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="17">
-        <f>SUM(D12,H12,AC12,F12)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="77"/>
@@ -2375,99 +2410,99 @@
         <v>0</v>
       </c>
       <c r="D13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="122">
+        <v>0</v>
+      </c>
+      <c r="H13" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="40">
+        <v>0</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="122">
+        <v>0</v>
+      </c>
+      <c r="L13" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="40">
+        <v>0</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="123">
+        <v>0</v>
+      </c>
+      <c r="P13" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="122">
-        <v>0</v>
-      </c>
-      <c r="H13" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="40">
-        <v>0</v>
-      </c>
-      <c r="J13" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="122">
-        <v>0</v>
-      </c>
-      <c r="L13" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="40">
-        <v>0</v>
-      </c>
-      <c r="N13" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="123">
-        <v>0</v>
-      </c>
-      <c r="P13" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="14">
-        <v>0</v>
-      </c>
-      <c r="T13" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="14">
-        <v>0</v>
-      </c>
-      <c r="V13" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="13">
-        <v>0</v>
-      </c>
-      <c r="X13" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="17">
-        <f>SUM(D13,H13,AC13,F13)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="77"/>
@@ -2483,99 +2518,99 @@
         <v>0</v>
       </c>
       <c r="D14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="122">
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="122">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <v>0</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="123">
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="122">
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
-        <v>0</v>
-      </c>
-      <c r="J14" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="122">
-        <v>0</v>
-      </c>
-      <c r="L14" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="40">
-        <v>0</v>
-      </c>
-      <c r="N14" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="123">
-        <v>0</v>
-      </c>
-      <c r="P14" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="14">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="14">
-        <v>0</v>
-      </c>
-      <c r="V14" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="13">
-        <v>0</v>
-      </c>
-      <c r="X14" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="17">
-        <f>SUM(D14,H14,AC14,F14)</f>
         <v>0</v>
       </c>
       <c r="AE14" s="77"/>
@@ -2593,99 +2628,99 @@
         <v>0</v>
       </c>
       <c r="D15" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="122">
+        <v>0</v>
+      </c>
+      <c r="H15" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="122">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="40">
+        <v>0</v>
+      </c>
+      <c r="N15" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="123">
+        <v>0</v>
+      </c>
+      <c r="P15" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="122">
-        <v>0</v>
-      </c>
-      <c r="H15" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="40">
-        <v>0</v>
-      </c>
-      <c r="J15" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="122">
-        <v>0</v>
-      </c>
-      <c r="L15" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="40">
-        <v>0</v>
-      </c>
-      <c r="N15" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="123">
-        <v>0</v>
-      </c>
-      <c r="P15" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-      <c r="T15" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="13">
-        <v>0</v>
-      </c>
-      <c r="X15" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="17">
-        <f>SUM(D15,H15,AC15,F15)</f>
         <v>0</v>
       </c>
       <c r="AE15" s="81"/>
@@ -2703,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" s="17">
@@ -2717,85 +2752,85 @@
         <v>0</v>
       </c>
       <c r="H16" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16" s="40">
         <v>0</v>
       </c>
       <c r="J16" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16" s="122">
         <v>0</v>
       </c>
       <c r="L16" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M16" s="40">
         <v>0</v>
       </c>
       <c r="N16" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O16" s="123">
         <v>0</v>
       </c>
       <c r="P16" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q16" s="14">
         <v>0</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S16" s="14">
         <v>0</v>
       </c>
       <c r="T16" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U16" s="14">
         <v>0</v>
       </c>
       <c r="V16" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W16" s="13">
         <v>0</v>
       </c>
       <c r="X16" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y16" s="124">
         <v>0</v>
       </c>
       <c r="Z16" s="103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA16" s="103">
         <v>0</v>
       </c>
       <c r="AB16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD16" s="17">
-        <f>SUM(D16,H16,AC16,F16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE16" s="81"/>
@@ -2813,99 +2848,99 @@
         <v>0</v>
       </c>
       <c r="D17" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="122">
+        <v>0</v>
+      </c>
+      <c r="H17" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="122">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="40">
+        <v>0</v>
+      </c>
+      <c r="N17" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="123">
+        <v>0</v>
+      </c>
+      <c r="P17" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="14">
+        <v>0</v>
+      </c>
+      <c r="T17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="13">
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="122">
-        <v>0</v>
-      </c>
-      <c r="H17" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="40">
-        <v>0</v>
-      </c>
-      <c r="J17" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="122">
-        <v>0</v>
-      </c>
-      <c r="L17" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="40">
-        <v>0</v>
-      </c>
-      <c r="N17" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="123">
-        <v>0</v>
-      </c>
-      <c r="P17" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0</v>
-      </c>
-      <c r="R17" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="14">
-        <v>0</v>
-      </c>
-      <c r="T17" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="14">
-        <v>0</v>
-      </c>
-      <c r="V17" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="13">
-        <v>0</v>
-      </c>
-      <c r="X17" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="17">
-        <f>SUM(D17,H17,AC17,F17)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="81"/>
@@ -2923,99 +2958,99 @@
         <v>0</v>
       </c>
       <c r="D18" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="122">
+        <v>0</v>
+      </c>
+      <c r="H18" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="122">
+        <v>0</v>
+      </c>
+      <c r="L18" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="40">
+        <v>0</v>
+      </c>
+      <c r="N18" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="123">
+        <v>0</v>
+      </c>
+      <c r="P18" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="122">
-        <v>0</v>
-      </c>
-      <c r="H18" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="40">
-        <v>0</v>
-      </c>
-      <c r="J18" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="122">
-        <v>0</v>
-      </c>
-      <c r="L18" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="40">
-        <v>0</v>
-      </c>
-      <c r="N18" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="123">
-        <v>0</v>
-      </c>
-      <c r="P18" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>0</v>
-      </c>
-      <c r="R18" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="14">
-        <v>0</v>
-      </c>
-      <c r="T18" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="14">
-        <v>0</v>
-      </c>
-      <c r="V18" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="13">
-        <v>0</v>
-      </c>
-      <c r="X18" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="17">
-        <f>SUM(D18,H18,AC18,F18)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="81"/>
@@ -3033,99 +3068,99 @@
         <v>0</v>
       </c>
       <c r="D19" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="122">
+        <v>0</v>
+      </c>
+      <c r="H19" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="122">
+        <v>0</v>
+      </c>
+      <c r="L19" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="40">
+        <v>0</v>
+      </c>
+      <c r="N19" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="123">
+        <v>0</v>
+      </c>
+      <c r="P19" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0</v>
+      </c>
+      <c r="T19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="13">
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="122">
-        <v>0</v>
-      </c>
-      <c r="H19" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="40">
-        <v>0</v>
-      </c>
-      <c r="J19" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="122">
-        <v>0</v>
-      </c>
-      <c r="L19" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="40">
-        <v>0</v>
-      </c>
-      <c r="N19" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="123">
-        <v>0</v>
-      </c>
-      <c r="P19" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0</v>
-      </c>
-      <c r="R19" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="14">
-        <v>0</v>
-      </c>
-      <c r="T19" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="14">
-        <v>0</v>
-      </c>
-      <c r="V19" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="13">
-        <v>0</v>
-      </c>
-      <c r="X19" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="17">
-        <f>SUM(D19,H19,AC19,F19)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="106"/>
@@ -3143,99 +3178,99 @@
         <v>0</v>
       </c>
       <c r="D20" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="122">
+        <v>0</v>
+      </c>
+      <c r="H20" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="40">
+        <v>0</v>
+      </c>
+      <c r="J20" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="122">
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="40">
+        <v>0</v>
+      </c>
+      <c r="N20" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="123">
+        <v>0</v>
+      </c>
+      <c r="P20" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0</v>
+      </c>
+      <c r="T20" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="122">
-        <v>0</v>
-      </c>
-      <c r="H20" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="40">
-        <v>0</v>
-      </c>
-      <c r="J20" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="122">
-        <v>0</v>
-      </c>
-      <c r="L20" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="40">
-        <v>0</v>
-      </c>
-      <c r="N20" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="123">
-        <v>0</v>
-      </c>
-      <c r="P20" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
-      <c r="R20" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="14">
-        <v>0</v>
-      </c>
-      <c r="T20" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="14">
-        <v>0</v>
-      </c>
-      <c r="V20" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13">
-        <v>0</v>
-      </c>
-      <c r="X20" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="17">
-        <f>SUM(D20,H20,AC20,F20)</f>
         <v>0</v>
       </c>
       <c r="AE20" s="81"/>
@@ -3253,99 +3288,99 @@
         <v>0</v>
       </c>
       <c r="D21" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="122">
+        <v>0</v>
+      </c>
+      <c r="H21" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="40">
+        <v>0</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="122">
+        <v>0</v>
+      </c>
+      <c r="L21" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="40">
+        <v>0</v>
+      </c>
+      <c r="N21" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="123">
+        <v>0</v>
+      </c>
+      <c r="P21" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0</v>
+      </c>
+      <c r="T21" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="14">
+        <v>0</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+      <c r="X21" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="122">
-        <v>0</v>
-      </c>
-      <c r="H21" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="40">
-        <v>0</v>
-      </c>
-      <c r="J21" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="122">
-        <v>0</v>
-      </c>
-      <c r="L21" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="40">
-        <v>0</v>
-      </c>
-      <c r="N21" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="123">
-        <v>0</v>
-      </c>
-      <c r="P21" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>0</v>
-      </c>
-      <c r="R21" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="14">
-        <v>0</v>
-      </c>
-      <c r="T21" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="14">
-        <v>0</v>
-      </c>
-      <c r="V21" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13">
-        <v>0</v>
-      </c>
-      <c r="X21" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="17">
-        <f>SUM(D21,H21,AC21,F21)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="81"/>
@@ -3363,99 +3398,99 @@
         <v>0</v>
       </c>
       <c r="D22" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="122">
+        <v>0</v>
+      </c>
+      <c r="H22" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
+        <v>0</v>
+      </c>
+      <c r="J22" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="122">
+        <v>0</v>
+      </c>
+      <c r="L22" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="40">
+        <v>0</v>
+      </c>
+      <c r="N22" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="123">
+        <v>0</v>
+      </c>
+      <c r="P22" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <v>0</v>
+      </c>
+      <c r="T22" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0</v>
+      </c>
+      <c r="X22" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="124">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="122">
-        <v>0</v>
-      </c>
-      <c r="H22" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="40">
-        <v>0</v>
-      </c>
-      <c r="J22" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="122">
-        <v>0</v>
-      </c>
-      <c r="L22" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="40">
-        <v>0</v>
-      </c>
-      <c r="N22" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="123">
-        <v>0</v>
-      </c>
-      <c r="P22" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>0</v>
-      </c>
-      <c r="R22" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="14">
-        <v>0</v>
-      </c>
-      <c r="T22" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="14">
-        <v>0</v>
-      </c>
-      <c r="V22" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13">
-        <v>0</v>
-      </c>
-      <c r="X22" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="124">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="17">
-        <f>SUM(D22,H22,AC22,F22)</f>
         <v>0</v>
       </c>
       <c r="AE22" s="81"/>
@@ -3473,99 +3508,99 @@
         <v>0</v>
       </c>
       <c r="D23" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="122">
+        <v>0</v>
+      </c>
+      <c r="H23" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="40">
+        <v>0</v>
+      </c>
+      <c r="J23" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="122">
+        <v>0</v>
+      </c>
+      <c r="L23" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="40">
+        <v>0</v>
+      </c>
+      <c r="N23" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="123">
+        <v>0</v>
+      </c>
+      <c r="P23" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
+      <c r="T23" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+      <c r="X23" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="124">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="122">
-        <v>0</v>
-      </c>
-      <c r="H23" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="40">
-        <v>0</v>
-      </c>
-      <c r="J23" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="122">
-        <v>0</v>
-      </c>
-      <c r="L23" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="40">
-        <v>0</v>
-      </c>
-      <c r="N23" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="123">
-        <v>0</v>
-      </c>
-      <c r="P23" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0</v>
-      </c>
-      <c r="R23" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0</v>
-      </c>
-      <c r="T23" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="13">
-        <v>0</v>
-      </c>
-      <c r="X23" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="124">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="17">
-        <f>SUM(D23,H23,AC23,F23)</f>
         <v>0</v>
       </c>
       <c r="AE23" s="81"/>
@@ -3583,99 +3618,99 @@
         <v>0</v>
       </c>
       <c r="D24" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="122">
+        <v>0</v>
+      </c>
+      <c r="H24" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
+        <v>0</v>
+      </c>
+      <c r="J24" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="122">
+        <v>0</v>
+      </c>
+      <c r="L24" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="40">
+        <v>0</v>
+      </c>
+      <c r="N24" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="123">
+        <v>0</v>
+      </c>
+      <c r="P24" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0</v>
+      </c>
+      <c r="T24" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="13">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="122">
-        <v>0</v>
-      </c>
-      <c r="H24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="40">
-        <v>0</v>
-      </c>
-      <c r="J24" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="122">
-        <v>0</v>
-      </c>
-      <c r="L24" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="40">
-        <v>0</v>
-      </c>
-      <c r="N24" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="123">
-        <v>0</v>
-      </c>
-      <c r="P24" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
-      <c r="R24" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="14">
-        <v>0</v>
-      </c>
-      <c r="T24" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="14">
-        <v>0</v>
-      </c>
-      <c r="V24" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="13">
-        <v>0</v>
-      </c>
-      <c r="X24" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="17">
-        <f>SUM(D24,H24,AC24,F24)</f>
         <v>0</v>
       </c>
       <c r="AE24" s="81"/>
@@ -3693,99 +3728,99 @@
         <v>0</v>
       </c>
       <c r="D25" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="122">
+        <v>0</v>
+      </c>
+      <c r="H25" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="40">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="122">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="40">
+        <v>0</v>
+      </c>
+      <c r="N25" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="123">
+        <v>0</v>
+      </c>
+      <c r="P25" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0</v>
+      </c>
+      <c r="T25" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+      <c r="X25" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="122">
-        <v>0</v>
-      </c>
-      <c r="H25" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="40">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="122">
-        <v>0</v>
-      </c>
-      <c r="L25" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="40">
-        <v>0</v>
-      </c>
-      <c r="N25" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="123">
-        <v>0</v>
-      </c>
-      <c r="P25" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>0</v>
-      </c>
-      <c r="R25" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="14">
-        <v>0</v>
-      </c>
-      <c r="T25" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="14">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="13">
-        <v>0</v>
-      </c>
-      <c r="X25" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="17">
-        <f>SUM(D25,H25,AC25,F25)</f>
         <v>0</v>
       </c>
       <c r="AE25" s="81"/>
@@ -3803,99 +3838,99 @@
         <v>0</v>
       </c>
       <c r="D26" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="122">
+        <v>0</v>
+      </c>
+      <c r="H26" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="J26" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="122">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="40">
+        <v>0</v>
+      </c>
+      <c r="N26" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="123">
+        <v>0</v>
+      </c>
+      <c r="P26" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="14">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13">
+        <v>0</v>
+      </c>
+      <c r="X26" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="122">
-        <v>0</v>
-      </c>
-      <c r="H26" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="J26" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="122">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="40">
-        <v>0</v>
-      </c>
-      <c r="N26" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="123">
-        <v>0</v>
-      </c>
-      <c r="P26" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
-      <c r="R26" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
-        <v>0</v>
-      </c>
-      <c r="T26" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="14">
-        <v>0</v>
-      </c>
-      <c r="V26" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13">
-        <v>0</v>
-      </c>
-      <c r="X26" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="17">
-        <f>SUM(D26,H26,AC26,F26)</f>
         <v>0</v>
       </c>
       <c r="AE26" s="81"/>
@@ -3913,99 +3948,99 @@
         <v>0</v>
       </c>
       <c r="D27" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="122">
+        <v>0</v>
+      </c>
+      <c r="H27" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="40">
+        <v>0</v>
+      </c>
+      <c r="J27" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="122">
+        <v>0</v>
+      </c>
+      <c r="L27" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="40">
+        <v>0</v>
+      </c>
+      <c r="N27" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="123">
+        <v>0</v>
+      </c>
+      <c r="P27" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="14">
+        <v>0</v>
+      </c>
+      <c r="V27" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="122">
-        <v>0</v>
-      </c>
-      <c r="H27" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="40">
-        <v>0</v>
-      </c>
-      <c r="J27" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="122">
-        <v>0</v>
-      </c>
-      <c r="L27" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="40">
-        <v>0</v>
-      </c>
-      <c r="N27" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="123">
-        <v>0</v>
-      </c>
-      <c r="P27" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>0</v>
-      </c>
-      <c r="R27" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="14">
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="14">
-        <v>0</v>
-      </c>
-      <c r="V27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13">
-        <v>0</v>
-      </c>
-      <c r="X27" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="17">
-        <f>SUM(D27,H27,AC27,F27)</f>
         <v>0</v>
       </c>
       <c r="AE27" s="118"/>
@@ -4023,99 +4058,99 @@
         <v>0</v>
       </c>
       <c r="D28" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="122">
+        <v>0</v>
+      </c>
+      <c r="H28" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="40">
+        <v>0</v>
+      </c>
+      <c r="J28" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="122">
+        <v>0</v>
+      </c>
+      <c r="L28" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="40">
+        <v>0</v>
+      </c>
+      <c r="N28" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="123">
+        <v>0</v>
+      </c>
+      <c r="P28" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <v>0</v>
+      </c>
+      <c r="T28" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13">
+        <v>0</v>
+      </c>
+      <c r="X28" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="122">
-        <v>0</v>
-      </c>
-      <c r="H28" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="40">
-        <v>0</v>
-      </c>
-      <c r="J28" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="122">
-        <v>0</v>
-      </c>
-      <c r="L28" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="40">
-        <v>0</v>
-      </c>
-      <c r="N28" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="123">
-        <v>0</v>
-      </c>
-      <c r="P28" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>0</v>
-      </c>
-      <c r="R28" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="14">
-        <v>0</v>
-      </c>
-      <c r="T28" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="14">
-        <v>0</v>
-      </c>
-      <c r="V28" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13">
-        <v>0</v>
-      </c>
-      <c r="X28" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="17">
-        <f>SUM(D28,H28,AC28,F28)</f>
         <v>0</v>
       </c>
       <c r="AE28" s="81"/>
@@ -4133,99 +4168,99 @@
         <v>0</v>
       </c>
       <c r="D29" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="122">
+        <v>0</v>
+      </c>
+      <c r="H29" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="40">
+        <v>0</v>
+      </c>
+      <c r="J29" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="122">
+        <v>0</v>
+      </c>
+      <c r="L29" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="40">
+        <v>0</v>
+      </c>
+      <c r="N29" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="123">
+        <v>0</v>
+      </c>
+      <c r="P29" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <v>0</v>
+      </c>
+      <c r="T29" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="14">
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13">
+        <v>0</v>
+      </c>
+      <c r="X29" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="122">
-        <v>0</v>
-      </c>
-      <c r="H29" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="40">
-        <v>0</v>
-      </c>
-      <c r="J29" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="122">
-        <v>0</v>
-      </c>
-      <c r="L29" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="40">
-        <v>0</v>
-      </c>
-      <c r="N29" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="123">
-        <v>0</v>
-      </c>
-      <c r="P29" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>0</v>
-      </c>
-      <c r="R29" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="14">
-        <v>0</v>
-      </c>
-      <c r="T29" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="14">
-        <v>0</v>
-      </c>
-      <c r="V29" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13">
-        <v>0</v>
-      </c>
-      <c r="X29" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="17">
-        <f>SUM(D29,H29,AC29,F29)</f>
         <v>0</v>
       </c>
       <c r="AE29" s="81"/>
@@ -4243,99 +4278,99 @@
         <v>0</v>
       </c>
       <c r="D30" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="122">
+        <v>0</v>
+      </c>
+      <c r="H30" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="40">
+        <v>0</v>
+      </c>
+      <c r="J30" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="122">
+        <v>0</v>
+      </c>
+      <c r="L30" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="40">
+        <v>0</v>
+      </c>
+      <c r="N30" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="123">
+        <v>0</v>
+      </c>
+      <c r="P30" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13">
+        <v>0</v>
+      </c>
+      <c r="X30" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="122">
-        <v>0</v>
-      </c>
-      <c r="H30" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="40">
-        <v>0</v>
-      </c>
-      <c r="J30" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="122">
-        <v>0</v>
-      </c>
-      <c r="L30" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="40">
-        <v>0</v>
-      </c>
-      <c r="N30" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="123">
-        <v>0</v>
-      </c>
-      <c r="P30" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>0</v>
-      </c>
-      <c r="R30" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="14">
-        <v>0</v>
-      </c>
-      <c r="T30" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="14">
-        <v>0</v>
-      </c>
-      <c r="V30" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13">
-        <v>0</v>
-      </c>
-      <c r="X30" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="17">
-        <f>SUM(D30,H30,AC30,F30)</f>
         <v>0</v>
       </c>
       <c r="AE30" s="81"/>
@@ -4353,99 +4388,99 @@
         <v>0</v>
       </c>
       <c r="D31" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="122">
+        <v>0</v>
+      </c>
+      <c r="H31" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="40">
+        <v>0</v>
+      </c>
+      <c r="J31" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="122">
+        <v>0</v>
+      </c>
+      <c r="L31" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="40">
+        <v>0</v>
+      </c>
+      <c r="N31" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="123">
+        <v>0</v>
+      </c>
+      <c r="P31" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="14">
+        <v>0</v>
+      </c>
+      <c r="T31" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="14">
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13">
+        <v>0</v>
+      </c>
+      <c r="X31" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="122">
-        <v>0</v>
-      </c>
-      <c r="H31" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="40">
-        <v>0</v>
-      </c>
-      <c r="J31" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="122">
-        <v>0</v>
-      </c>
-      <c r="L31" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="40">
-        <v>0</v>
-      </c>
-      <c r="N31" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="123">
-        <v>0</v>
-      </c>
-      <c r="P31" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>0</v>
-      </c>
-      <c r="R31" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="14">
-        <v>0</v>
-      </c>
-      <c r="T31" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="14">
-        <v>0</v>
-      </c>
-      <c r="V31" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="13">
-        <v>0</v>
-      </c>
-      <c r="X31" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="103">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="17">
-        <f>SUM(D31,H31,AC31,F31)</f>
         <v>0</v>
       </c>
       <c r="AE31" s="81"/>
@@ -4463,99 +4498,99 @@
         <v>0</v>
       </c>
       <c r="D32" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="122">
+        <v>0</v>
+      </c>
+      <c r="H32" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="40">
+        <v>0</v>
+      </c>
+      <c r="J32" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="122">
+        <v>0</v>
+      </c>
+      <c r="L32" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="40">
+        <v>0</v>
+      </c>
+      <c r="N32" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="123">
+        <v>0</v>
+      </c>
+      <c r="P32" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0</v>
+      </c>
+      <c r="R32" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="14">
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="14">
+        <v>0</v>
+      </c>
+      <c r="V32" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13">
+        <v>0</v>
+      </c>
+      <c r="X32" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="122">
-        <v>0</v>
-      </c>
-      <c r="H32" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="40">
-        <v>0</v>
-      </c>
-      <c r="J32" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="122">
-        <v>0</v>
-      </c>
-      <c r="L32" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="40">
-        <v>0</v>
-      </c>
-      <c r="N32" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="123">
-        <v>0</v>
-      </c>
-      <c r="P32" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>0</v>
-      </c>
-      <c r="R32" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="14">
-        <v>0</v>
-      </c>
-      <c r="T32" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="14">
-        <v>0</v>
-      </c>
-      <c r="V32" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13">
-        <v>0</v>
-      </c>
-      <c r="X32" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="103">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="17">
-        <f>SUM(D32,H32,AC32,F32)</f>
         <v>0</v>
       </c>
       <c r="AE32" s="81"/>
@@ -4573,99 +4608,99 @@
         <v>0</v>
       </c>
       <c r="D33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="122">
+        <v>0</v>
+      </c>
+      <c r="H33" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="40">
+        <v>0</v>
+      </c>
+      <c r="J33" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="122">
+        <v>0</v>
+      </c>
+      <c r="L33" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="40">
+        <v>0</v>
+      </c>
+      <c r="N33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="123">
+        <v>0</v>
+      </c>
+      <c r="P33" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0</v>
+      </c>
+      <c r="R33" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="14">
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="14">
+        <v>0</v>
+      </c>
+      <c r="V33" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13">
+        <v>0</v>
+      </c>
+      <c r="X33" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="122">
-        <v>0</v>
-      </c>
-      <c r="H33" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="40">
-        <v>0</v>
-      </c>
-      <c r="J33" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="122">
-        <v>0</v>
-      </c>
-      <c r="L33" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="40">
-        <v>0</v>
-      </c>
-      <c r="N33" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="123">
-        <v>0</v>
-      </c>
-      <c r="P33" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>0</v>
-      </c>
-      <c r="R33" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="14">
-        <v>0</v>
-      </c>
-      <c r="T33" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="14">
-        <v>0</v>
-      </c>
-      <c r="V33" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13">
-        <v>0</v>
-      </c>
-      <c r="X33" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="103">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="17">
-        <f>SUM(D33,H33,AC33,F33)</f>
         <v>0</v>
       </c>
       <c r="AE33" s="81"/>
@@ -4683,99 +4718,99 @@
         <v>0</v>
       </c>
       <c r="D34" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="122">
+        <v>0</v>
+      </c>
+      <c r="H34" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="40">
+        <v>0</v>
+      </c>
+      <c r="J34" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="122">
+        <v>0</v>
+      </c>
+      <c r="L34" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="40">
+        <v>0</v>
+      </c>
+      <c r="N34" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="123">
+        <v>0</v>
+      </c>
+      <c r="P34" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="14">
+        <v>0</v>
+      </c>
+      <c r="T34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="14">
+        <v>0</v>
+      </c>
+      <c r="V34" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13">
+        <v>0</v>
+      </c>
+      <c r="X34" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="122">
-        <v>0</v>
-      </c>
-      <c r="H34" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="40">
-        <v>0</v>
-      </c>
-      <c r="J34" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="122">
-        <v>0</v>
-      </c>
-      <c r="L34" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="40">
-        <v>0</v>
-      </c>
-      <c r="N34" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="123">
-        <v>0</v>
-      </c>
-      <c r="P34" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>0</v>
-      </c>
-      <c r="R34" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="14">
-        <v>0</v>
-      </c>
-      <c r="T34" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="14">
-        <v>0</v>
-      </c>
-      <c r="V34" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13">
-        <v>0</v>
-      </c>
-      <c r="X34" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="103">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="17">
-        <f>SUM(D34,H34,AC34,F34)</f>
         <v>0</v>
       </c>
       <c r="AE34" s="83"/>
@@ -4793,99 +4828,99 @@
         <v>0</v>
       </c>
       <c r="D35" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="122">
+        <v>0</v>
+      </c>
+      <c r="H35" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="40">
+        <v>0</v>
+      </c>
+      <c r="J35" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="122">
+        <v>0</v>
+      </c>
+      <c r="L35" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="40">
+        <v>0</v>
+      </c>
+      <c r="N35" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="123">
+        <v>0</v>
+      </c>
+      <c r="P35" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>0</v>
+      </c>
+      <c r="R35" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="14">
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="14">
+        <v>0</v>
+      </c>
+      <c r="V35" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13">
+        <v>0</v>
+      </c>
+      <c r="X35" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="17">
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="122">
-        <v>0</v>
-      </c>
-      <c r="H35" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="40">
-        <v>0</v>
-      </c>
-      <c r="J35" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="122">
-        <v>0</v>
-      </c>
-      <c r="L35" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="40">
-        <v>0</v>
-      </c>
-      <c r="N35" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="123">
-        <v>0</v>
-      </c>
-      <c r="P35" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>0</v>
-      </c>
-      <c r="R35" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="14">
-        <v>0</v>
-      </c>
-      <c r="T35" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="14">
-        <v>0</v>
-      </c>
-      <c r="V35" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="13">
-        <v>0</v>
-      </c>
-      <c r="X35" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="103">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="17">
-        <f>SUM(D35,H35,AC35,F35)</f>
         <v>0</v>
       </c>
       <c r="AE35" s="83"/>
@@ -4903,99 +4938,99 @@
         <v>0</v>
       </c>
       <c r="D36" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="122">
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="40">
+        <v>0</v>
+      </c>
+      <c r="J36" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="122">
+        <v>0</v>
+      </c>
+      <c r="L36" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="40">
+        <v>0</v>
+      </c>
+      <c r="N36" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="102">
+        <v>0</v>
+      </c>
+      <c r="P36" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>0</v>
+      </c>
+      <c r="R36" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="14">
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="14">
+        <v>0</v>
+      </c>
+      <c r="V36" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13">
+        <v>0</v>
+      </c>
+      <c r="X36" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="103">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="103">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="122">
-        <v>0</v>
-      </c>
-      <c r="H36" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="40">
-        <v>0</v>
-      </c>
-      <c r="J36" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="122">
-        <v>0</v>
-      </c>
-      <c r="L36" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="40">
-        <v>0</v>
-      </c>
-      <c r="N36" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="102">
-        <v>0</v>
-      </c>
-      <c r="P36" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>0</v>
-      </c>
-      <c r="R36" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="14">
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="14">
-        <v>0</v>
-      </c>
-      <c r="V36" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13">
-        <v>0</v>
-      </c>
-      <c r="X36" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="103">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="103">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="17">
-        <f>SUM(D36,H36,AC36,F36)</f>
         <v>0</v>
       </c>
       <c r="AE36" s="101"/>
@@ -5022,83 +5057,83 @@
         <v>0</v>
       </c>
       <c r="F37" s="39">
-        <f t="shared" ref="F37:Y37" si="14">SUM(F7:F36)</f>
+        <f t="shared" ref="F37:Y37" si="15">SUM(F7:F36)</f>
         <v>0</v>
       </c>
       <c r="G37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="H37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1800000</v>
       </c>
       <c r="I37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K37" s="39">
-        <f t="shared" ref="K37:N37" si="15">SUM(K7:K36)</f>
+        <f t="shared" ref="K37:N37" si="16">SUM(K7:K36)</f>
         <v>0</v>
       </c>
       <c r="L37" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="39">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M37" s="39">
+      <c r="P37" s="39">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N37" s="39">
+      <c r="Q37" s="39">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="39">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="39">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="39">
-        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="R37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>900000</v>
       </c>
       <c r="S37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="T37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1200000</v>
       </c>
       <c r="U37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y37" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z37" s="39">
@@ -5110,11 +5145,11 @@
         <v>0</v>
       </c>
       <c r="AB37" s="39">
-        <f t="shared" ref="AB37:AC37" si="16">SUM(AB7:AB36)</f>
+        <f t="shared" ref="AB37:AC37" si="17">SUM(AB7:AB36)</f>
         <v>0</v>
       </c>
       <c r="AC37" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2100000</v>
       </c>
       <c r="AD37" s="39">
@@ -5128,73 +5163,73 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="127">
-        <v>0</v>
-      </c>
-      <c r="D38" s="127"/>
+      <c r="C38" s="143">
+        <v>0</v>
+      </c>
+      <c r="D38" s="143"/>
       <c r="E38" s="92"/>
       <c r="F38" s="92"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="128"/>
-      <c r="Q38" s="128"/>
-      <c r="R38" s="128"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="128"/>
-      <c r="X38" s="128"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="128"/>
-      <c r="AA38" s="128"/>
-      <c r="AB38" s="128"/>
-      <c r="AC38" s="128"/>
-      <c r="AD38" s="128"/>
-      <c r="AE38" s="128"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="130"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
+      <c r="Z38" s="130"/>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="130"/>
+      <c r="AC38" s="130"/>
+      <c r="AD38" s="130"/>
+      <c r="AE38" s="130"/>
     </row>
     <row r="39" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="129">
-        <v>0</v>
-      </c>
-      <c r="D39" s="129"/>
+      <c r="C39" s="131">
+        <v>0</v>
+      </c>
+      <c r="D39" s="131"/>
       <c r="E39" s="93"/>
       <c r="F39" s="93"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="128"/>
-      <c r="Y39" s="128"/>
-      <c r="Z39" s="128"/>
-      <c r="AA39" s="128"/>
-      <c r="AB39" s="128"/>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="128"/>
-      <c r="AE39" s="128"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="130"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="130"/>
+      <c r="Q39" s="130"/>
+      <c r="R39" s="130"/>
+      <c r="S39" s="130"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
+      <c r="W39" s="130"/>
+      <c r="X39" s="130"/>
+      <c r="Y39" s="130"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="130"/>
+      <c r="AB39" s="130"/>
+      <c r="AC39" s="130"/>
+      <c r="AD39" s="130"/>
+      <c r="AE39" s="130"/>
       <c r="AH39" s="11" t="s">
         <v>9</v>
       </c>
@@ -5213,6 +5248,13 @@
   </sheetData>
   <autoFilter ref="AE4:AE39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="G39:AE39"/>
@@ -5229,13 +5271,6 @@
     <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="G38:AE38"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5265,14 +5300,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -5916,10 +5951,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G37"/>
+  <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5937,15 +5972,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="25"/>
@@ -5973,377 +6008,444 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="157">
+      <c r="A5" s="127"/>
+      <c r="B5" s="126">
         <v>44044</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
-      <c r="B6" s="157">
+      <c r="A6" s="127"/>
+      <c r="B6" s="126">
         <v>44045</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="127"/>
     </row>
     <row r="7" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
-      <c r="B7" s="157">
+      <c r="A7" s="127"/>
+      <c r="B7" s="161">
         <v>44046</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-    </row>
-    <row r="8" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="157">
+      <c r="C7" s="127">
+        <v>1</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="111">
+        <v>700000</v>
+      </c>
+      <c r="F7" s="111"/>
+      <c r="G7" s="127"/>
+    </row>
+    <row r="8" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="127"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="127">
+        <v>2</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="111">
+        <v>1820000</v>
+      </c>
+      <c r="F8" s="111"/>
+      <c r="G8" s="127"/>
+    </row>
+    <row r="9" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="127"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="127">
+        <v>3</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="111">
+        <v>870000</v>
+      </c>
+      <c r="F9" s="111"/>
+      <c r="G9" s="127"/>
+    </row>
+    <row r="10" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="127"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="127">
+        <v>4</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="111">
+        <v>310000</v>
+      </c>
+      <c r="F10" s="111"/>
+      <c r="G10" s="127"/>
+    </row>
+    <row r="11" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="127">
+        <v>5</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="111">
+        <v>190000</v>
+      </c>
+      <c r="F11" s="111"/>
+      <c r="G11" s="127"/>
+    </row>
+    <row r="12" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
+      <c r="B12" s="126">
         <v>44047</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-    </row>
-    <row r="9" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="157">
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="127"/>
+    </row>
+    <row r="13" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="127"/>
+      <c r="B13" s="126">
         <v>44048</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-    </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
-      <c r="B10" s="157">
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="127"/>
+    </row>
+    <row r="14" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="127"/>
+      <c r="B14" s="126">
         <v>44049</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-    </row>
-    <row r="11" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
-      <c r="B11" s="157">
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="127"/>
+    </row>
+    <row r="15" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
+      <c r="B15" s="126">
         <v>44050</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-    </row>
-    <row r="12" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
-      <c r="B12" s="157">
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="127"/>
+    </row>
+    <row r="16" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
+      <c r="B16" s="126">
         <v>44051</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-    </row>
-    <row r="13" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
-      <c r="B13" s="157">
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="127"/>
+    </row>
+    <row r="17" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="127"/>
+      <c r="B17" s="126">
         <v>44052</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-    </row>
-    <row r="14" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
-      <c r="B14" s="157">
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="127"/>
+    </row>
+    <row r="18" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="126">
         <v>44053</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-    </row>
-    <row r="15" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="158"/>
-      <c r="B15" s="157">
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="127"/>
+    </row>
+    <row r="19" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
+      <c r="B19" s="126">
         <v>44054</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-    </row>
-    <row r="16" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="158"/>
-      <c r="B16" s="157">
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="127"/>
+    </row>
+    <row r="20" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
+      <c r="B20" s="126">
         <v>44055</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-    </row>
-    <row r="17" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158"/>
-      <c r="B17" s="157">
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="127"/>
+    </row>
+    <row r="21" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
+      <c r="B21" s="126">
         <v>44056</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-    </row>
-    <row r="18" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
-      <c r="B18" s="157">
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="127"/>
+    </row>
+    <row r="22" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="127"/>
+      <c r="B22" s="126">
         <v>44057</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-    </row>
-    <row r="19" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="158"/>
-      <c r="B19" s="157">
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="127"/>
+    </row>
+    <row r="23" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
+      <c r="B23" s="126">
         <v>44058</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-    </row>
-    <row r="20" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="158"/>
-      <c r="B20" s="157">
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="127"/>
+    </row>
+    <row r="24" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="127"/>
+      <c r="B24" s="126">
         <v>44059</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-    </row>
-    <row r="21" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="158"/>
-      <c r="B21" s="157">
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="127"/>
+    </row>
+    <row r="25" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="127"/>
+      <c r="B25" s="126">
         <v>44060</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-    </row>
-    <row r="22" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="158"/>
-      <c r="B22" s="157">
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="127"/>
+    </row>
+    <row r="26" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="127"/>
+      <c r="B26" s="126">
         <v>44061</v>
       </c>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-    </row>
-    <row r="23" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
-      <c r="B23" s="157">
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="127"/>
+    </row>
+    <row r="27" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="127"/>
+      <c r="B27" s="126">
         <v>44062</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-    </row>
-    <row r="24" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="158"/>
-      <c r="B24" s="157">
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="127"/>
+    </row>
+    <row r="28" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="127"/>
+      <c r="B28" s="126">
         <v>44063</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-    </row>
-    <row r="25" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
-      <c r="B25" s="157">
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="127"/>
+    </row>
+    <row r="29" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="127"/>
+      <c r="B29" s="126">
         <v>44064</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-    </row>
-    <row r="26" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="158"/>
-      <c r="B26" s="157">
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="127"/>
+    </row>
+    <row r="30" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
+      <c r="B30" s="126">
         <v>44065</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-    </row>
-    <row r="27" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="158"/>
-      <c r="B27" s="157">
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="127"/>
+    </row>
+    <row r="31" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="127"/>
+      <c r="B31" s="126">
         <v>44066</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-    </row>
-    <row r="28" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="158"/>
-      <c r="B28" s="157">
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="127"/>
+    </row>
+    <row r="32" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="127"/>
+      <c r="B32" s="126">
         <v>44067</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-    </row>
-    <row r="29" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
-      <c r="B29" s="157">
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="127"/>
+    </row>
+    <row r="33" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="127"/>
+      <c r="B33" s="126">
         <v>44068</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-    </row>
-    <row r="30" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
-      <c r="B30" s="157">
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="127"/>
+    </row>
+    <row r="34" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="127"/>
+      <c r="B34" s="126">
         <v>44069</v>
       </c>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="158"/>
-      <c r="B31" s="157">
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="127"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="127"/>
+      <c r="B35" s="126">
         <v>44070</v>
       </c>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-    </row>
-    <row r="32" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="158"/>
-      <c r="B32" s="157">
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="127"/>
+    </row>
+    <row r="36" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="127"/>
+      <c r="B36" s="126">
         <v>44071</v>
       </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-    </row>
-    <row r="33" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="158"/>
-      <c r="B33" s="157">
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="127"/>
+    </row>
+    <row r="37" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="127"/>
+      <c r="B37" s="126">
         <v>44072</v>
       </c>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-    </row>
-    <row r="34" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="158"/>
-      <c r="B34" s="157">
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="127"/>
+    </row>
+    <row r="38" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="127"/>
+      <c r="B38" s="126">
         <v>44073</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="158"/>
-      <c r="B35" s="157">
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="127"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="127"/>
+      <c r="B39" s="126">
         <v>44074</v>
       </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="127"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B40" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="86">
-        <f>SUM(E5:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="86">
-        <f>SUM(F5:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="71"/>
-    </row>
-    <row r="37" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="70"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="86">
+        <f>SUM(E5:E39)</f>
+        <v>3890000</v>
+      </c>
+      <c r="F40" s="86">
+        <f>SUM(F5:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="71"/>
+    </row>
+    <row r="41" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="76"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6373,14 +6475,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
@@ -6805,12 +6907,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -6876,11 +6978,11 @@
     </row>
     <row r="7" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="48">
         <f>SUM(E4:E6)</f>
         <v>8105000</v>
@@ -7094,22 +7196,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6"/>
@@ -7162,7 +7264,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E36)</f>
-        <v>8095000</v>
+        <v>4205000</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -7180,7 +7282,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="47">
-        <f>nợ!E7+nhập!F36</f>
+        <f>nợ!E7+nhập!F40</f>
         <v>8105000</v>
       </c>
     </row>
@@ -7203,12 +7305,12 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
     </row>
     <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -7229,7 +7331,7 @@
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="155" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7243,7 +7345,7 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="151"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7255,7 +7357,7 @@
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="151"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="34" t="s">
         <v>81</v>
       </c>
@@ -7267,7 +7369,7 @@
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="151"/>
+      <c r="C20" s="155"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7287,8 +7389,8 @@
         <v>17</v>
       </c>
       <c r="E21" s="49">
-        <f>nhập!E36</f>
-        <v>0</v>
+        <f>nhập!E40</f>
+        <v>3890000</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7310,31 +7412,31 @@
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="153"/>
+      <c r="D23" s="157"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>0</v>
+        <v>3890000</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
     </row>
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="148">
+      <c r="B27" s="152">
         <f>SUM(D11,-E23)</f>
-        <v>14395000</v>
-      </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="150"/>
+        <v>10505000</v>
+      </c>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -7398,19 +7500,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="147"/>
+      <c r="B2" s="151"/>
       <c r="D2" t="s">
         <v>62</v>
       </c>
@@ -7440,8 +7542,8 @@
         <v>60</v>
       </c>
       <c r="B5" s="47">
-        <f>chi!E36+nhập!E36</f>
-        <v>0</v>
+        <f>chi!E36+nhập!E40</f>
+        <v>3890000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>64</v>
@@ -7457,7 +7559,7 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>8095000</v>
+        <v>4205000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>65</v>
@@ -7468,22 +7570,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="154" t="s">
+      <c r="B9" s="159"/>
+      <c r="C9" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="159"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
